--- a/source/PART 01/CHAPTER 03/이름 정의.xlsx
+++ b/source/PART 01/CHAPTER 03/이름 정의.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\최준선\Desktop\CD\PART 01\CHAPTER 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\source\PART 01\CHAPTER 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A9EBF-EA23-414A-8B30-695F8DCADD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="직원명부">OFFSET(sample!$A$1, 0, 0, COUNTA(sample!$A:$A), 7)</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -216,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,13 +258,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,16 +288,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,21 +617,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" customHeight="1">
@@ -642,7 +660,10 @@
       <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="7">
+        <f ca="1">ROWS(직원명부)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="1">
@@ -670,7 +691,10 @@
       <c r="I2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7">
+        <f ca="1">COLUMNS(직원명부)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1">
       <c r="A3" s="1">
@@ -698,7 +722,10 @@
       <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="str">
+        <f ca="1">"A1:"&amp;ADDRESS(J1, J2, 4)</f>
+        <v>A1:G12</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1">
       <c r="A4" s="1">
@@ -726,147 +753,163 @@
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2">
-        <v>32019</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42461</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
-        <v>33135</v>
+        <v>32019</v>
       </c>
       <c r="F6" s="2">
-        <v>42127</v>
+        <v>42461</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
-        <v>32326</v>
+        <v>33135</v>
       </c>
       <c r="F7" s="2">
-        <v>41929</v>
+        <v>42127</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
-        <v>33753</v>
+        <v>32326</v>
       </c>
       <c r="F8" s="2">
-        <v>42371</v>
+        <v>41929</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
-        <v>34343</v>
+        <v>33753</v>
       </c>
       <c r="F9" s="2">
-        <v>42434</v>
+        <v>42371</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <v>34343</v>
+      </c>
+      <c r="F10" s="2">
+        <v>42434</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>33996</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>42323</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
